--- a/2. Planificación/1.2.5 Matriz de Riesgos.xlsx
+++ b/2. Planificación/1.2.5 Matriz de Riesgos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\2. Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A232BE9-569E-4B4D-8890-F52C3AC6ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940F3C4-4017-4CAE-A5B6-DC34351B59E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Riesgos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Matriz de Riesgos" sheetId="4" r:id="rId1"/>
+    <sheet name="Riesgos" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>Registro y Seguimiento de Riesgos</t>
   </si>
@@ -123,93 +123,6 @@
     <t>Riesgos Externos</t>
   </si>
   <si>
-    <t>Tarea</t>
-  </si>
-  <si>
-    <t>Optimista</t>
-  </si>
-  <si>
-    <t>Más Probable</t>
-  </si>
-  <si>
-    <t>Pesimista</t>
-  </si>
-  <si>
-    <t>Identificación de Requerimientos</t>
-  </si>
-  <si>
-    <t>0.5 semanas</t>
-  </si>
-  <si>
-    <t>1 semana</t>
-  </si>
-  <si>
-    <t>1.5 semanas</t>
-  </si>
-  <si>
-    <t>Investigación y Selección de Proveedores</t>
-  </si>
-  <si>
-    <t>2 semanas</t>
-  </si>
-  <si>
-    <t>Planificación de Recursos</t>
-  </si>
-  <si>
-    <t>Adquisición de Hardware (Control de Acceso)</t>
-  </si>
-  <si>
-    <t>3 semanas</t>
-  </si>
-  <si>
-    <t>4 semanas</t>
-  </si>
-  <si>
-    <t>6 semanas</t>
-  </si>
-  <si>
-    <t>Desarrollo de Software (Control de Acceso)</t>
-  </si>
-  <si>
-    <t>8 semanas</t>
-  </si>
-  <si>
-    <t>10 semanas</t>
-  </si>
-  <si>
-    <t>Pruebas y Ajustes (Control de Acceso)</t>
-  </si>
-  <si>
-    <t>5 semanas</t>
-  </si>
-  <si>
-    <t>Adquisición de Hardware (Drop Off)</t>
-  </si>
-  <si>
-    <t>Desarrollo de Software (Drop Off)</t>
-  </si>
-  <si>
-    <t>Pruebas y Ajustes (Drop Off)</t>
-  </si>
-  <si>
-    <t>2.5 semanas</t>
-  </si>
-  <si>
-    <t>Adquisición de Hardware (Compras en el Casino)</t>
-  </si>
-  <si>
-    <t>Desarrollo de Software (Compras en el Casino)</t>
-  </si>
-  <si>
-    <t>Pruebas y Ajustes (Compras en el Casino)</t>
-  </si>
-  <si>
-    <t>Evaluación de Resultados</t>
-  </si>
-  <si>
-    <t>Entrega Final</t>
-  </si>
-  <si>
     <t>Riesgos Tecnicos</t>
   </si>
   <si>
@@ -322,13 +235,61 @@
   </si>
   <si>
     <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Matriz de Riesgos</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>La ocurrencia del riesgo es altamente improbable</t>
+  </si>
+  <si>
+    <t>Existe una posibilidad razonable de que el riesgo ocurra bajo ciertas circunstancias</t>
+  </si>
+  <si>
+    <t>Probable</t>
+  </si>
+  <si>
+    <t>Es probable que el riesgo ocurra durante la ejecución normal del proyecto</t>
+  </si>
+  <si>
+    <t>El riesgo es muy probable y puede ocurrir frecuentemente durante el proyecto</t>
+  </si>
+  <si>
+    <t>Nivel Impacto</t>
+  </si>
+  <si>
+    <t>Aceptable</t>
+  </si>
+  <si>
+    <t>El impacto es manejable y no afecta significativamente el proyecto ni sus objetivos</t>
+  </si>
+  <si>
+    <t>El impacto causa problemas menores o moderados que pueden manejarse con recursos adicionales o ajustes en el plan</t>
+  </si>
+  <si>
+    <t>El impacto es significativo y puede requerir acciones inmediatas para mitigar sus efectos negativos</t>
+  </si>
+  <si>
+    <t>El impacto es severo, poniendo en riesgo crítico los objetivos del proyecto y requiere atención inmediata y medidas drásticas</t>
+  </si>
+  <si>
+    <t>Definicion Impacto</t>
+  </si>
+  <si>
+    <t>Definicion Probabilidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,25 +329,31 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,12 +386,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CF07"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE67C05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF04E53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78B564"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -508,11 +499,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -566,10 +637,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -598,6 +665,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +1046,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3312F987-E95E-45AF-90C5-C9D15D156F61}">
+  <dimension ref="B3:I31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="39"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="39"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="33">
+        <v>4</v>
+      </c>
+      <c r="E9" s="34">
+        <v>4</v>
+      </c>
+      <c r="F9" s="35">
+        <v>8</v>
+      </c>
+      <c r="G9" s="36">
+        <v>12</v>
+      </c>
+      <c r="H9" s="36">
+        <v>16</v>
+      </c>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33">
+        <v>3</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
+        <v>6</v>
+      </c>
+      <c r="G10" s="36">
+        <v>9</v>
+      </c>
+      <c r="H10" s="36">
+        <v>12</v>
+      </c>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33">
+        <v>2</v>
+      </c>
+      <c r="E11" s="37">
+        <v>2</v>
+      </c>
+      <c r="F11" s="34">
+        <v>4</v>
+      </c>
+      <c r="G11" s="35">
+        <v>6</v>
+      </c>
+      <c r="H11" s="35">
+        <v>8</v>
+      </c>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+      <c r="F12" s="37">
+        <v>2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>3</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4</v>
+      </c>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="33">
+        <v>1</v>
+      </c>
+      <c r="F13" s="33">
+        <v>2</v>
+      </c>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+      <c r="H13" s="33">
+        <v>4</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="39"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="26" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="G26" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="2:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="54">
+        <v>1</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="54">
+        <v>1</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="54">
+        <v>2</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="54">
+        <v>2</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="54">
+        <v>3</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="54">
+        <v>3</v>
+      </c>
+      <c r="I30" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="54">
+        <v>4</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="54">
+        <v>4</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="C26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1025,13 +1554,13 @@
     </row>
     <row r="4" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>18</v>
@@ -1069,13 +1598,13 @@
     </row>
     <row r="5" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>13</v>
@@ -1114,13 +1643,13 @@
     </row>
     <row r="6" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>18</v>
@@ -1159,13 +1688,13 @@
     </row>
     <row r="7" spans="1:18" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>18</v>
@@ -1204,13 +1733,13 @@
     </row>
     <row r="8" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -1249,13 +1778,13 @@
     </row>
     <row r="9" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
@@ -1288,13 +1817,13 @@
     </row>
     <row r="10" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>13</v>
@@ -1303,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G10" s="15">
         <v>4</v>
@@ -1327,13 +1856,13 @@
     </row>
     <row r="11" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>13</v>
@@ -1364,7 +1893,7 @@
     </row>
     <row r="12" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>24</v>
@@ -1401,10 +1930,10 @@
     </row>
     <row r="13" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>20</v>
@@ -1438,10 +1967,10 @@
     </row>
     <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>20</v>
@@ -1475,10 +2004,10 @@
     </row>
     <row r="15" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>20</v>
@@ -1512,10 +2041,10 @@
     </row>
     <row r="16" spans="1:18" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>20</v>
@@ -1549,10 +2078,10 @@
     </row>
     <row r="17" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>20</v>
@@ -1586,13 +2115,13 @@
     </row>
     <row r="18" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>18</v>
@@ -1623,10 +2152,10 @@
     </row>
     <row r="19" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>25</v>
@@ -1660,10 +2189,10 @@
     </row>
     <row r="20" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>26</v>
@@ -1696,28 +2225,28 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>2</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <v>4</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <f>E21*G21</f>
         <v>8</v>
       </c>
@@ -1733,14 +2262,14 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1753,14 +2282,14 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -6384,7 +6913,7 @@
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H1:H21 H23:H986">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>1</formula>
@@ -6417,233 +6946,4 @@
   <pageMargins left="0" right="0" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="C9:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>